--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Transportation-Management\Transportation-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51FE91D-122B-481B-A11A-D58C65B349F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D372A-1CFC-45B4-895A-DEFAC3653D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{855AFDE3-9187-4789-8577-DAC36B4B8374}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
   <si>
     <t>Người gửi</t>
   </si>
@@ -267,13 +267,25 @@
   </si>
   <si>
     <t>Không gửi hàng</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Column32</t>
+  </si>
+  <si>
+    <t>Bắc Giang, Nghệ An, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Column62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +325,13 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -346,43 +365,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,30 +512,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE64D42E-CF34-4682-85AB-2A4592C665E5}" name="Table5" displayName="Table5" ref="L1:S26" totalsRowShown="0">
-  <autoFilter ref="L1:S26" xr:uid="{CE64D42E-CF34-4682-85AB-2A4592C665E5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:S26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE64D42E-CF34-4682-85AB-2A4592C665E5}" name="Table5" displayName="Table5" ref="L1:U26" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="L1:U26" xr:uid="{CE64D42E-CF34-4682-85AB-2A4592C665E5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:U26">
     <sortCondition ref="L1:L26"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FCAEA476-FBE2-4EB5-928C-E158B18B5C76}" name="Đơn hàng"/>
-    <tableColumn id="2" xr3:uid="{DE74180B-D640-4AAE-9DD9-6DBB98ACD7C0}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{75E9E786-ABA8-429C-90A7-2CA9DDF57B66}" name="Column2"/>
-    <tableColumn id="4" xr3:uid="{FF2C99A9-E9A1-4DB6-AB57-16F7013D3262}" name="Column3"/>
-    <tableColumn id="5" xr3:uid="{79596DA8-E050-4C91-A93F-C91AA8DFE452}" name="Column4"/>
-    <tableColumn id="6" xr3:uid="{AF1B9BE7-143E-4445-B144-F98E234C8064}" name="Column5" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{AA8253F9-A39E-4A0C-A201-83719F471261}" name="Column6"/>
-    <tableColumn id="8" xr3:uid="{24449970-A66D-4283-9107-6E55AD2F1A23}" name="Column7"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{FCAEA476-FBE2-4EB5-928C-E158B18B5C76}" name="Đơn hàng" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DE74180B-D640-4AAE-9DD9-6DBB98ACD7C0}" name="Ngày" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{75E9E786-ABA8-429C-90A7-2CA9DDF57B66}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FF2C99A9-E9A1-4DB6-AB57-16F7013D3262}" name="Column3" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{1C746D51-F1A5-4F6F-8346-E2CF315730FC}" name="Column32" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{79596DA8-E050-4C91-A93F-C91AA8DFE452}" name="Column4" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{AF1B9BE7-143E-4445-B144-F98E234C8064}" name="Column5" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{AA8253F9-A39E-4A0C-A201-83719F471261}" name="Column6" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C0AC01BD-4491-4674-8FC1-5BEB2026A94C}" name="Column62" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{24449970-A66D-4283-9107-6E55AD2F1A23}" name="Column7" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDDC536D-386B-4690-B9BB-332A7A31F536}" name="Table8" displayName="Table8" ref="U13:Y34" totalsRowShown="0">
-  <autoFilter ref="U13:Y34" xr:uid="{EDDC536D-386B-4690-B9BB-332A7A31F536}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDDC536D-386B-4690-B9BB-332A7A31F536}" name="Table8" displayName="Table8" ref="X13:AB34" totalsRowShown="0">
+  <autoFilter ref="X13:AB34" xr:uid="{EDDC536D-386B-4690-B9BB-332A7A31F536}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CD272942-A34D-4310-B223-5FAFF31F9CD5}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CD272942-A34D-4310-B223-5FAFF31F9CD5}" name="Column1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{10E3ED0F-5B23-4C0D-B10B-2D5CDF720DCA}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{6167EB97-8D32-42F7-9879-1AF520B5AB73}" name="Xử lý"/>
     <tableColumn id="4" xr3:uid="{3909F9BC-3AB6-4D28-80AF-C982833C0BA4}" name="Vận chuyển"/>
@@ -483,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD7DA00B-382A-46DF-A25B-7766DCF0438F}" name="Table9" displayName="Table9" ref="U3:Y9" totalsRowShown="0">
-  <autoFilter ref="U3:Y9" xr:uid="{BD7DA00B-382A-46DF-A25B-7766DCF0438F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD7DA00B-382A-46DF-A25B-7766DCF0438F}" name="Table9" displayName="Table9" ref="X3:AB9" totalsRowShown="0">
+  <autoFilter ref="X3:AB9" xr:uid="{BD7DA00B-382A-46DF-A25B-7766DCF0438F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A0DDDB81-AAC3-46CE-99D8-E07590F8B109}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{381095A0-0690-4EF4-A6FE-B14D7E9E580C}" name="Column2"/>
@@ -813,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8114499-FAED-42CC-A591-34DAA6C6C020}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,18 +899,20 @@
     <col min="12" max="12" width="10.7265625" customWidth="1"/>
     <col min="13" max="13" width="12.1796875" customWidth="1"/>
     <col min="14" max="14" width="14.1796875" customWidth="1"/>
-    <col min="15" max="16" width="10.453125" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
-    <col min="18" max="18" width="17.6328125" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="10.08984375" customWidth="1"/>
-    <col min="21" max="22" width="16.26953125" customWidth="1"/>
-    <col min="23" max="23" width="13.90625" customWidth="1"/>
-    <col min="24" max="24" width="12.54296875" customWidth="1"/>
-    <col min="25" max="25" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="16" max="16" width="20.90625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="19" max="20" width="17.6328125" customWidth="1"/>
+    <col min="21" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="10.08984375" customWidth="1"/>
+    <col min="24" max="25" width="16.26953125" customWidth="1"/>
+    <col min="26" max="26" width="13.90625" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,32 +940,39 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -908,42 +982,47 @@
       <c r="H2">
         <v>48</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="15">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="15">
         <v>302</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="15">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15">
         <v>203</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="15"/>
+      <c r="X2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Z2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -959,57 +1038,60 @@
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>22</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>13</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="15">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="15">
         <v>207</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15">
         <v>27</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S3">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15">
         <v>204</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" s="15"/>
+      <c r="X3" t="s">
         <v>8</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>9</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>10</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>19</v>
       </c>
       <c r="C4">
@@ -1018,50 +1100,53 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>6</v>
       </c>
       <c r="I4">
         <v>32</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="15">
         <v>3</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="15">
         <v>203</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S4">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15">
         <v>202</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" s="15"/>
+      <c r="X4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>27</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>5</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1071,41 +1156,44 @@
       <c r="H5">
         <v>38</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="15">
         <v>303</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15">
         <v>29</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S5">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15">
         <v>306</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="15"/>
+      <c r="Y5" t="s">
         <v>18</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>8</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1121,102 +1209,108 @@
       <c r="I6">
         <v>30</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <v>5</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="15">
         <v>101</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15">
         <v>30</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15">
         <v>203</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" t="s">
+      <c r="V6" s="15"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" t="s">
         <v>32</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="15">
         <v>202</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15">
         <v>31</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="S7">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
         <v>206</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="15"/>
+      <c r="Y7" t="s">
         <v>34</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>2</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AB7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>44</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
       <c r="G8">
         <v>13</v>
       </c>
@@ -1226,362 +1320,383 @@
       <c r="I8">
         <v>47</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <v>7</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="15">
         <v>201</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15">
         <v>32</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S8">
+      <c r="T8" s="15"/>
+      <c r="U8" s="15">
         <v>201</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" t="s">
+      <c r="V8" s="15"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" t="s">
         <v>23</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>12</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>48</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="G9">
         <v>16</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
         <v>8</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="15">
         <v>102</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15">
         <v>33</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S9">
+      <c r="T9" s="15"/>
+      <c r="U9" s="15">
         <v>206</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="15"/>
+      <c r="Y9" t="s">
         <v>16</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>18</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AB9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>38</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>50</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>40</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="4"/>
       <c r="G10">
         <v>18</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>14</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="15">
         <v>107</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15">
         <v>34</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="15"/>
+      <c r="U10" s="15">
         <v>105</v>
       </c>
-      <c r="W10">
-        <f>SUM(X4:X9)</f>
+      <c r="V10" s="15"/>
+      <c r="Z10">
+        <f>SUM(AA4:AA9)</f>
         <v>50</v>
       </c>
-      <c r="X10">
-        <f>50-W10</f>
+      <c r="AA10">
+        <f>50-Z10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="G11">
         <v>19</v>
       </c>
       <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>4</v>
       </c>
       <c r="J11">
         <v>19</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="15">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="15">
         <v>205</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15">
         <v>35</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S11">
+      <c r="T11" s="15"/>
+      <c r="U11" s="15">
         <v>103</v>
       </c>
-      <c r="W11" t="str">
-        <f>IF(W10=50, "ok", "not ok")</f>
+      <c r="V11" s="15"/>
+      <c r="Z11" t="str">
+        <f>IF(Z10=50, "ok", "not ok")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="G12">
         <v>22</v>
       </c>
       <c r="H12">
         <v>17</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="15">
         <v>11</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="15">
         <v>207</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15">
         <v>36</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="15"/>
+      <c r="U12" s="15">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="G13">
         <v>25</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>43</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="15">
         <v>12</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="15">
         <v>307</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15">
         <v>37</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S13">
+      <c r="T13" s="15"/>
+      <c r="U13" s="15">
         <v>104</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" s="15"/>
+      <c r="X13" t="s">
         <v>8</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Y13" t="s">
         <v>9</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Z13" t="s">
         <v>46</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AA13" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AB13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="G14">
         <v>27</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>29</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <v>13</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="15">
         <v>102</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15">
         <v>38</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S14">
+      <c r="T14" s="15"/>
+      <c r="U14" s="15">
         <v>207</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="10" t="s">
+      <c r="V14" s="15"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
         <v>101</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="Z14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AA14" t="s">
         <v>52</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AB14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>42</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="G15">
         <v>29</v>
       </c>
@@ -1591,58 +1706,61 @@
       <c r="I15">
         <v>35</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
         <v>14</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="15">
         <v>202</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15">
         <v>39</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S15">
+      <c r="T15" s="15"/>
+      <c r="U15" s="15">
         <v>303</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15">
+      <c r="V15" s="15"/>
+      <c r="X15" s="7"/>
+      <c r="Y15">
         <v>102</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="Z15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AA15" t="s">
         <v>52</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AB15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>39</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>20</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>49</v>
       </c>
       <c r="G16">
@@ -1654,45 +1772,48 @@
       <c r="I16">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
         <v>15</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="15">
         <v>303</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
         <v>40</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S16">
+      <c r="T16" s="15"/>
+      <c r="U16" s="15">
         <v>207</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16">
+      <c r="V16" s="15"/>
+      <c r="X16" s="7"/>
+      <c r="Y16">
         <v>103</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="Z16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AA16" t="s">
         <v>52</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AB16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1702,96 +1823,102 @@
       <c r="H17">
         <v>21</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="15">
         <v>16</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="15">
         <v>106</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15">
         <v>41</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S17">
+      <c r="T17" s="15"/>
+      <c r="U17" s="15">
         <v>202</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17">
+      <c r="V17" s="15"/>
+      <c r="X17" s="7"/>
+      <c r="Y17">
         <v>104</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="Z17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" t="s">
         <v>56</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AB17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>33</v>
       </c>
       <c r="G18">
         <v>34</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>5</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="15">
         <v>17</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="15">
         <v>103</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15">
         <v>42</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S18">
+      <c r="T18" s="15"/>
+      <c r="U18" s="15">
         <v>102</v>
       </c>
-      <c r="U18" s="10"/>
-      <c r="V18">
+      <c r="V18" s="15"/>
+      <c r="X18" s="7"/>
+      <c r="Y18">
         <v>105</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="Z18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AA18" t="s">
         <v>59</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AB18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1811,52 +1938,55 @@
         <f>COUNT(Table2[Đơn hàng3])</f>
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="15">
         <v>18</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="15">
         <v>206</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15">
         <v>43</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S19">
+      <c r="T19" s="15"/>
+      <c r="U19" s="15">
         <v>103</v>
       </c>
-      <c r="U19" s="10"/>
-      <c r="V19">
+      <c r="V19" s="15"/>
+      <c r="X19" s="7"/>
+      <c r="Y19">
         <v>106</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="Z19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AA19" t="s">
         <v>59</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AB19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>35</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>6</v>
       </c>
       <c r="D20">
@@ -1865,45 +1995,48 @@
       <c r="E20">
         <v>46</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="15">
         <v>19</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="15">
         <v>206</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15">
         <v>44</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="R20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S20">
+      <c r="T20" s="15"/>
+      <c r="U20" s="15">
         <v>202</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20">
+      <c r="V20" s="15"/>
+      <c r="X20" s="7"/>
+      <c r="Y20">
         <v>107</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="Z20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
         <v>61</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AB20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1913,203 +2046,213 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="G21">
-        <f>COUNT(G2:G18)</f>
-        <v>17</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>62</v>
       </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="L21">
+      <c r="L21" s="15">
         <v>20</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="15">
         <v>207</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15">
         <v>45</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S21">
+      <c r="T21" s="15"/>
+      <c r="U21" s="15">
         <v>206</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="V21" s="15"/>
+      <c r="X21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
         <v>201</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="Z21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AA21" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AB21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>32</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>64</v>
       </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="L22">
+      <c r="L22" s="15">
         <v>21</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="15">
         <v>106</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15">
         <v>46</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S22">
+      <c r="T22" s="15"/>
+      <c r="U22" s="15">
         <v>307</v>
       </c>
-      <c r="U22" s="10"/>
-      <c r="V22">
+      <c r="V22" s="15"/>
+      <c r="X22" s="7"/>
+      <c r="Y22">
         <v>202</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="Z22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AA22" t="s">
         <v>52</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AB22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>26</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="L23">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="L23" s="15">
         <v>22</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="15">
         <v>307</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15">
         <v>47</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="S23">
+      <c r="T23" s="15"/>
+      <c r="U23" s="15">
         <v>203</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="10"/>
-      <c r="V23">
+      <c r="V23" s="15"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="7"/>
+      <c r="Y23">
         <v>203</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="Z23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AA23" t="s">
         <v>52</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AB23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>66</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="15">
         <v>23</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="15">
         <v>102</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15">
         <v>48</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S24">
+      <c r="T24" s="15"/>
+      <c r="U24" s="15">
         <v>107</v>
       </c>
-      <c r="U24" s="10"/>
-      <c r="V24">
+      <c r="V24" s="15"/>
+      <c r="X24" s="7"/>
+      <c r="Y24">
         <v>204</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="Z24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AA24" t="s">
         <v>68</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AB24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>30</v>
       </c>
       <c r="C25">
@@ -2118,45 +2261,48 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="15">
         <v>24</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="15">
         <v>206</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15">
         <v>49</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="R25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S25">
+      <c r="T25" s="15"/>
+      <c r="U25" s="15">
         <v>207</v>
       </c>
-      <c r="U25" s="10"/>
-      <c r="V25">
+      <c r="V25" s="15"/>
+      <c r="X25" s="7"/>
+      <c r="Y25">
         <v>205</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="Z25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X25" t="s">
+      <c r="AA25" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AB25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2172,49 +2318,52 @@
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="15">
         <v>25</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="15">
         <v>204</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15">
         <v>50</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S26">
+      <c r="T26" s="15"/>
+      <c r="U26" s="15">
         <v>203</v>
       </c>
-      <c r="U26" s="10"/>
-      <c r="V26">
+      <c r="V26" s="15"/>
+      <c r="X26" s="7"/>
+      <c r="Y26">
         <v>206</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="Z26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X26" t="s">
+      <c r="AA26" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AB26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2223,21 +2372,21 @@
       <c r="G27">
         <v>13</v>
       </c>
-      <c r="U27" s="10"/>
-      <c r="V27">
+      <c r="X27" s="7"/>
+      <c r="Y27">
         <v>207</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="Z27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X27" t="s">
+      <c r="AA27" t="s">
         <v>59</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AB27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2248,27 +2397,27 @@
         <f>COUNTIF(M2:M26, M21)</f>
         <v>2</v>
       </c>
-      <c r="Q28">
-        <f>COUNTIF(Q2:Q26, Q5)</f>
+      <c r="R28">
+        <f>COUNTIF(R2:R26, R5)</f>
         <v>2</v>
       </c>
-      <c r="U28" s="10" t="s">
+      <c r="X28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
         <v>301</v>
       </c>
-      <c r="W28">
+      <c r="Z28">
         <v>0</v>
       </c>
-      <c r="X28">
+      <c r="AA28">
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="AB28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2278,7 +2427,7 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="10">
         <v>43</v>
       </c>
       <c r="E29">
@@ -2287,21 +2436,21 @@
       <c r="G29">
         <v>18</v>
       </c>
-      <c r="U29" s="10"/>
-      <c r="V29">
+      <c r="X29" s="7"/>
+      <c r="Y29">
         <v>302</v>
       </c>
-      <c r="W29">
+      <c r="Z29">
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="AA29">
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="AB29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2314,21 +2463,21 @@
       <c r="G30">
         <v>23</v>
       </c>
-      <c r="U30" s="10"/>
-      <c r="V30">
+      <c r="X30" s="7"/>
+      <c r="Y30">
         <v>303</v>
       </c>
-      <c r="W30">
+      <c r="Z30">
         <v>0</v>
       </c>
-      <c r="X30">
+      <c r="AA30">
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2338,70 +2487,70 @@
       <c r="G31">
         <v>27</v>
       </c>
-      <c r="U31" s="10"/>
-      <c r="V31">
+      <c r="X31" s="7"/>
+      <c r="Y31">
         <v>304</v>
       </c>
-      <c r="W31">
+      <c r="Z31">
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="AA31">
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>3</v>
       </c>
       <c r="G32">
         <v>32</v>
       </c>
-      <c r="U32" s="10"/>
-      <c r="V32">
+      <c r="X32" s="7"/>
+      <c r="Y32">
         <v>305</v>
       </c>
-      <c r="W32">
+      <c r="Z32">
         <v>0</v>
       </c>
-      <c r="X32">
+      <c r="AA32">
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="G33">
         <v>35</v>
       </c>
-      <c r="U33" s="10"/>
-      <c r="V33">
+      <c r="X33" s="7"/>
+      <c r="Y33">
         <v>306</v>
       </c>
-      <c r="W33">
+      <c r="Z33">
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="AA33">
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="AB33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>7</v>
       </c>
       <c r="C34">
@@ -2410,34 +2559,47 @@
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="U34" s="10"/>
-      <c r="V34">
+      <c r="X34" s="7"/>
+      <c r="Y34">
         <v>307</v>
       </c>
-      <c r="W34">
+      <c r="Z34">
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="AA34">
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="AB34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <f>K35-K37</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>COUNT(Table1[[Đơn hàng1]:[Đơn hàng32]])</f>
         <v>50</v>
@@ -2458,39 +2620,21 @@
         <f>COUNT(Table1[Đơn hàng32])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39">
-        <f>F38-F40</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+      <c r="G37" t="s">
         <v>76</v>
       </c>
-      <c r="F40">
-        <f>COUNT(#REF!)</f>
-        <v>0</v>
+      <c r="K37">
+        <f>COUNT(G25:G34)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
